--- a/Site2/paper/analysis-v2.xlsx
+++ b/Site2/paper/analysis-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoton/Dropbox/Projects/ExplainTheUniverse/Site2/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3896BB2-9B59-164A-874C-70B1CE4FCB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B212F-05C0-5646-85C0-0FA6A0132AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="860" windowWidth="27500" windowHeight="22840" xr2:uid="{BA85C7D5-2029-644D-A8F8-1E8B53D5642B}"/>
+    <workbookView xWindow="10900" yWindow="860" windowWidth="27500" windowHeight="22840" activeTab="1" xr2:uid="{BA85C7D5-2029-644D-A8F8-1E8B53D5642B}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsOLD" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="63">
   <si>
     <t>claude-3.7-sonnet-think</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>Not a single execution in a total of 80 has chosen physicalism</t>
+  </si>
+  <si>
+    <t>Discarded</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>mu</t>
   </si>
 </sst>
 </file>
@@ -303,7 +312,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -326,6 +335,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -333,7 +353,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -354,6 +374,8 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -361,7 +383,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -861,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B402A4BC-BA3D-864B-B204-58BE0B3C20F0}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2610,12 +2642,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:G18 K3:K8 K13:K19 J20">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"nm"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2648,12 +2680,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H18 H20">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Google"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K8 C3:G18 K13:K19 J20">
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"ph"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2751,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2636DD-7EDB-A242-B7C6-B7D3FCE821E8}">
   <dimension ref="B2:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2789,18 +2821,21 @@
         <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2808,54 +2843,76 @@
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3">
-        <f>COUNTIFS($C$3:$G$18,K3)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="e">
-        <f>L3/$L$8</f>
-        <v>#DIV/0!</v>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3">
+        <f>COUNTIFS($C$3:$G$18,L3)</f>
+        <v>37</v>
+      </c>
+      <c r="N3" s="4">
+        <f>M3/$M$9</f>
+        <v>0.67272727272727273</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="3">
-        <f>COUNTIFS($C$3:$G$18,K4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="e">
-        <f>L4/$L$8</f>
-        <v>#DIV/0!</v>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3">
+        <f>COUNTIFS($C$3:$G$18,L4)</f>
+        <v>14</v>
+      </c>
+      <c r="N4" s="4">
+        <f>M4/$M$9</f>
+        <v>0.25454545454545452</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
@@ -2867,22 +2924,23 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="3">
-        <f>COUNTIFS($C$3:$G$18,K5)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="e">
-        <f>L5/$L$8</f>
-        <v>#DIV/0!</v>
+      <c r="M5" s="3">
+        <f>COUNTIFS($C$3:$G$18,L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <f>M5/$M$9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -2894,49 +2952,61 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="3">
-        <f>COUNTIFS($C$3:$G$18,K6)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4" t="e">
-        <f>L6/$L$8</f>
-        <v>#DIV/0!</v>
+      <c r="M6" s="3">
+        <f>COUNTIFS($C$3:$G$18,L6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <f>M6/$M$9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="3">
-        <f>COUNTIFS($C$3:$G$18,K7)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="4" t="e">
-        <f>L7/$L$8</f>
-        <v>#DIV/0!</v>
+      <c r="M7" s="3">
+        <f>COUNTIFS($C$3:$G$18,L7)</f>
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <f>M7/$M$9</f>
+        <v>7.2727272727272724E-2</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -2948,46 +3018,83 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2">
-        <f>SUM(L3:L7)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="5" t="e">
-        <f>SUM(M3:M7)</f>
-        <v>#DIV/0!</v>
+      <c r="K8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="20">
+        <f>COUNTIFS($C$3:$G$18,L8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
+        <f>M8/$M$9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="K9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <f>SUM(M3:M8)</f>
+        <v>55</v>
+      </c>
+      <c r="N9" s="5">
+        <f>SUM(N3:N8)</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2995,12 +3102,23 @@
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3008,20 +3126,31 @@
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
@@ -3032,89 +3161,133 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="N13" s="1"/>
+      <c r="M13" s="10"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>59</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="N14" s="11"/>
+      <c r="M14" s="10"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="N15" s="11"/>
+      <c r="M15" s="10"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M16" s="10"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="10"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -3123,21 +3296,22 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M18" s="10"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="J19" s="9"/>
       <c r="L19" s="10"/>
       <c r="N19" s="11"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
@@ -3163,484 +3337,484 @@
       <c r="K20" s="10"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="str">
-        <f t="shared" ref="B21:B31" si="0">H3</f>
+        <f>I3</f>
         <v>Google</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" ref="C21:G30" si="1">COUNTIF($C3:$G3,C$20)</f>
-        <v>0</v>
+        <f t="shared" ref="C21:G30" si="0">COUNTIF($C3:$G3,C$20)</f>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="2">
         <f>SUM(C21:G21)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>I4</f>
         <v>xAI</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" ref="H22:H36" si="2">SUM(C22:G22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H22:H36" si="1">SUM(C22:G22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>I5</f>
         <v>OpenAI</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="str">
+        <f>I6</f>
+        <v>OpenAI</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="str">
+        <f>I7</f>
+        <v>DeepSeek</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="str">
+        <f>I8</f>
+        <v>Alibaba</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="str">
+        <f>I9</f>
+        <v>Anthropic</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="str">
+        <f>I10</f>
+        <v>xAI</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="str">
+        <f>I11</f>
+        <v>DeepSeek</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="str">
+        <f>I12</f>
+        <v>OpenAI</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="str">
+        <f>I13</f>
+        <v>OpenAI</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" ref="C31:G36" si="2">COUNTIF($C13:$G13,C$20)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>OpenAI</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="E31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DeepSeek</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="F31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Alibaba</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="str">
+        <f>I14</f>
         <v>Anthropic</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="C32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>xAI</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="D32" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>DeepSeek</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>OpenAI</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="F32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>OpenAI</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:G40" si="3">COUNTIF($C13:$G13,C$20)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="str">
-        <f t="shared" ref="B32:B36" si="4">H14</f>
-        <v>Anthropic</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>I15</f>
         <v>Google</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>I16</f>
         <v>Meta</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>I17</f>
         <v>xAI</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f>I18</f>
         <v>Amazon</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3672,28 +3846,28 @@
         <v>30</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" ref="C39:G46" si="5">SUMIFS(C$21:C$36,$B$21:$B$36,$B39)</f>
-        <v>0</v>
+        <f t="shared" ref="C39:G46" si="3">SUMIFS(C$21:C$36,$B$21:$B$36,$B39)</f>
+        <v>9</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" ref="H39:H46" si="6">SUM(C39:G39)</f>
-        <v>0</v>
+        <f t="shared" ref="H39:H46" si="4">SUM(C39:G39)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -3701,28 +3875,28 @@
         <v>32</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -3730,28 +3904,28 @@
         <v>31</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -3759,28 +3933,28 @@
         <v>29</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -3788,27 +3962,27 @@
         <v>40</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3817,28 +3991,28 @@
         <v>28</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -3846,28 +4020,28 @@
         <v>33</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
@@ -3875,27 +4049,27 @@
         <v>34</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3905,46 +4079,46 @@
       </c>
       <c r="C47" s="2">
         <f>SUM(C39:C46)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" ref="D47:G47" si="7">SUM(D39:D46)</f>
-        <v>0</v>
+        <f t="shared" ref="D47:G47" si="5">SUM(D39:D46)</f>
+        <v>14</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="H47" s="2">
         <f>SUM(H39:H46)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:M8">
-    <sortCondition ref="J5:J8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:N8">
+    <sortCondition ref="K5:K8"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C3:G18 K3:K8 K13:K19 J20">
-    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J20 K19 L13:L18 C3:G18 L3:L9">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>"ai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G18">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"nm"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:G36 G21:G36">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3958,7 +4132,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39:G47">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3971,18 +4145,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H18 H20">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="I3:I18 H20">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Google"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K8 C3:G18 K13:K19 J20">
-    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="J20 K19 L13:L18 C3:G18 L3:L9">
+    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="equal">
       <formula>"ph"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M8">
+  <conditionalFormatting sqref="O14:O18 N19 M20:M21">
     <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04A35202-A393-A647-8E52-D2A04962D169}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N9">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3995,18 +4183,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N19 M20:M21">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04A35202-A393-A647-8E52-D2A04962D169}</x14:id>
-        </ext>
-      </extLst>
+  <conditionalFormatting sqref="L3:L8">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"nm"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4040,6 +4219,19 @@
           <xm:sqref>C39:G47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04A35202-A393-A647-8E52-D2A04962D169}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O14:O18 N19 M20:M21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C493FDD-F85E-154E-8054-50450B0923F6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -4050,20 +4242,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M3:M8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{04A35202-A393-A647-8E52-D2A04962D169}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N14:N19 M20:M21</xm:sqref>
+          <xm:sqref>N3:N9</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Site2/paper/analysis-v2.xlsx
+++ b/Site2/paper/analysis-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoton/Dropbox/Projects/ExplainTheUniverse/Site2/paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7B212F-05C0-5646-85C0-0FA6A0132AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0556BED6-7C2E-4B4E-888E-6125F312E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10900" yWindow="860" windowWidth="27500" windowHeight="22840" activeTab="1" xr2:uid="{BA85C7D5-2029-644D-A8F8-1E8B53D5642B}"/>
+    <workbookView xWindow="12480" yWindow="1020" windowWidth="25760" windowHeight="22540" activeTab="1" xr2:uid="{BA85C7D5-2029-644D-A8F8-1E8B53D5642B}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsOLD" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="86">
   <si>
     <t>claude-3.7-sonnet-think</t>
   </si>
@@ -224,22 +224,92 @@
     <t>Not a single execution in a total of 80 has chosen physicalism</t>
   </si>
   <si>
-    <t>Discarded</t>
-  </si>
-  <si>
     <t>multiple</t>
   </si>
   <si>
     <t>mu</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>gemini-2.5-pro-exp-20250330-0643</t>
+  </si>
+  <si>
+    <t>gemini-2.5-pro-exp-20250330-0702</t>
+  </si>
+  <si>
+    <t>claude-3.7-sonnet-think-20250330-1228</t>
+  </si>
+  <si>
+    <t>claude-3.7-sonnet-think-20250330-1233</t>
+  </si>
+  <si>
+    <t>deepseek-v3-0324-20250330-1203</t>
+  </si>
+  <si>
+    <t>gpt-4.5-preview-20250330-0748</t>
+  </si>
+  <si>
+    <t>gpt-4.5-preview-20250330-1619</t>
+  </si>
+  <si>
+    <t>gpt-4o-2025-03-20250330-1017</t>
+  </si>
+  <si>
+    <t>gpt-4o-2025-03-20250330-1018</t>
+  </si>
+  <si>
+    <t>Most multiple results combined ai with nm</t>
+  </si>
+  <si>
+    <t>gpt-4o-2025-03-20250330-1019</t>
+  </si>
+  <si>
+    <t>gpt-4o-2025-03-20250330-1021</t>
+  </si>
+  <si>
+    <t>gemini-2.0-flash-20250330-0718</t>
+  </si>
+  <si>
+    <t>gemini-2.0-flash-20250330-0723</t>
+  </si>
+  <si>
+    <t>llama-3.3-70b-20250330-1556</t>
+  </si>
+  <si>
+    <t>nova-pro-1.0-20250330-1246</t>
+  </si>
+  <si>
+    <t>TOTAL %</t>
+  </si>
+  <si>
+    <t>Dual-aspect monism is counted as neutral monism</t>
+  </si>
+  <si>
+    <t>Dissected answers with multiple frameworks</t>
+  </si>
+  <si>
+    <t>Analysis counting dissected answers with multiple frameworks</t>
+  </si>
+  <si>
+    <t>None of the answers with multuple frameworks leaned towards physicalism</t>
+  </si>
+  <si>
+    <t>Analysis by Lab</t>
+  </si>
+  <si>
+    <t>AI Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -353,7 +423,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -374,8 +444,17 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -383,7 +462,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -405,9 +484,124 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2642,12 +2836,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:G18 K3:K8 K13:K19 J20">
-    <cfRule type="cellIs" dxfId="8" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="4" stopIfTrue="1" operator="equal">
       <formula>"ai"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:G18">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"nm"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2680,12 +2874,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H18 H20">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"Google"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K8 C3:G18 K13:K19 J20">
-    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
       <formula>"ph"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2781,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2636DD-7EDB-A242-B7C6-B7D3FCE821E8}">
-  <dimension ref="B2:O47"/>
+  <dimension ref="B2:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2794,14 +2988,13 @@
     <col min="3" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2821,25 +3014,22 @@
         <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2850,34 +3040,33 @@
         <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="K3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3">
-        <f>COUNTIFS($C$3:$G$18,L3)</f>
-        <v>37</v>
-      </c>
-      <c r="N3" s="4">
-        <f>M3/$M$9</f>
-        <v>0.67272727272727273</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="L3" s="28">
+        <f t="shared" ref="L3:L8" si="0">COUNTIFS($C$3:$G$18,K3)</f>
+        <v>31</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M8" si="1">L3/$L$9</f>
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -2896,82 +3085,99 @@
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="J4" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="K4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3">
-        <f>COUNTIFS($C$3:$G$18,L4)</f>
-        <v>14</v>
-      </c>
-      <c r="N4" s="4">
-        <f>M4/$M$9</f>
-        <v>0.25454545454545452</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="L4" s="28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="K5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="3">
-        <f>COUNTIFS($C$3:$G$18,L5)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <f>M5/$M$9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L5" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="K6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="3">
-        <f>COUNTIFS($C$3:$G$18,L6)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <f>M6/$M$9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L6" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
@@ -2990,54 +3196,62 @@
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="J7" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="K7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="3">
-        <f>COUNTIFS($C$3:$G$18,L7)</f>
-        <v>4</v>
-      </c>
-      <c r="N7" s="4">
-        <f>M7/$M$9</f>
-        <v>7.2727272727272724E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L7" s="28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="J8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="20">
-        <f>COUNTIFS($C$3:$G$18,L8)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="21">
-        <f>M8/$M$9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="L8" s="29">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="M8" s="21">
+        <f t="shared" si="1"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
@@ -3048,33 +3262,32 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2">
+      <c r="K9" s="2"/>
+      <c r="L9" s="30">
+        <f>SUM(L3:L8)</f>
+        <v>80</v>
+      </c>
+      <c r="M9" s="5">
         <f>SUM(M3:M8)</f>
-        <v>55</v>
-      </c>
-      <c r="N9" s="5">
-        <f>SUM(N3:N8)</f>
         <v>1</v>
       </c>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -3093,17 +3306,16 @@
       <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>23</v>
@@ -3117,12 +3329,11 @@
       <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3341,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
@@ -3139,39 +3350,53 @@
         <v>23</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
@@ -3190,22 +3415,31 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="10"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="25">
+        <f>L3+C38</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="M14" s="4">
+        <f>L14/$L$9</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>23</v>
@@ -3214,22 +3448,31 @@
         <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K15" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="10"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="25">
+        <f>COUNTIFS($C$3:$G$18,K15)+D38</f>
+        <v>31.5</v>
+      </c>
+      <c r="M15" s="4">
+        <f>L15/$L$9</f>
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3243,22 +3486,31 @@
         <v>25</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="25">
+        <f>COUNTIFS($C$3:$G$18,K16)+E38</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M16" s="4">
+        <f>L16/$L$9</f>
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
@@ -3277,848 +3529,1289 @@
       <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M17" s="10"/>
-      <c r="O17" s="11"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="25">
+        <f>COUNTIFS($C$3:$G$18,K17)+F38</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f>L17/$L$9</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="10"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="J19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="J18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="25">
+        <f>COUNTIFS($C$3:$G$18,K18)+G38</f>
+        <v>5.5</v>
+      </c>
+      <c r="M18" s="4">
+        <f>L18/$L$9</f>
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <f>SUM(L14:L18)</f>
+        <v>79.999999999999986</v>
+      </c>
+      <c r="M19" s="5">
+        <f>SUM(M14:M18)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="str">
-        <f>I3</f>
-        <v>Google</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" ref="C21:G30" si="0">COUNTIF($C3:$G3,C$20)</f>
-        <v>5</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <f>SUM(C21:G21)</f>
-        <v>5</v>
-      </c>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="str">
-        <f>I4</f>
-        <v>xAI</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" ref="H22:H36" si="1">SUM(C22:G22)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="str">
-        <f>I5</f>
-        <v>OpenAI</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="str">
-        <f>I6</f>
-        <v>OpenAI</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="str">
-        <f>I7</f>
-        <v>DeepSeek</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="str">
-        <f>I8</f>
-        <v>Alibaba</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="str">
-        <f>I9</f>
-        <v>Anthropic</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="str">
-        <f>I10</f>
-        <v>xAI</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="str">
-        <f>I11</f>
-        <v>DeepSeek</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="str">
-        <f>I12</f>
-        <v>OpenAI</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="str">
-        <f>I13</f>
-        <v>OpenAI</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" ref="C31:G36" si="2">COUNTIF($C13:$G13,C$20)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="H22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D23" s="24">
+        <f t="shared" ref="D23:E23" si="2">1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E23" s="24">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="str">
-        <f>I14</f>
-        <v>Anthropic</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D24" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="str">
-        <f>I15</f>
-        <v>Google</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="B33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="str">
-        <f>I16</f>
-        <v>Meta</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="3" t="str">
-        <f>I17</f>
-        <v>xAI</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="str">
-        <f>I18</f>
-        <v>Amazon</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="B36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="26">
+        <f>SUM(C23:C37)</f>
+        <v>5.6666666666666661</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" ref="D38:G38" si="3">SUM(D23:D37)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" si="3"/>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="F38" s="26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="26">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="H38" s="27">
+        <f>SUM(C38:G38)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="22">
+        <f>C38/$H$38</f>
+        <v>0.37777777777777771</v>
+      </c>
+      <c r="D39" s="22">
+        <f>D38/$H$38</f>
+        <v>0.3</v>
+      </c>
+      <c r="E39" s="22">
+        <f>E38/$H$38</f>
+        <v>0.15555555555555553</v>
+      </c>
+      <c r="F39" s="22">
+        <f>F38/$H$38</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <f>G38/$H$38</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H39" s="23">
+        <f>SUM(C39:G39)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" ref="C39:G46" si="3">SUMIFS(C$21:C$36,$B$21:$B$36,$B39)</f>
-        <v>9</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="3"/>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="str">
+        <f t="shared" ref="B44:B59" si="4">H3</f>
+        <v>Google</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" ref="C44:G53" si="5">COUNTIF($C3:$G3,C$43)</f>
+        <v>3</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <f>SUM(C44:G44)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>xAI</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" ref="H45:H59" si="6">SUM(C45:G45)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>OpenAI</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>OpenAI</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>DeepSeek</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Alibaba</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Anthropic</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="E39" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" ref="H39:H46" si="4">SUM(C39:G39)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="H50" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
+        <v>xAI</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="2">
-        <f>SUM(C39:C46)</f>
-        <v>37</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" ref="D47:G47" si="5">SUM(D39:D46)</f>
-        <v>14</v>
-      </c>
-      <c r="E47" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
+        <v>DeepSeek</v>
+      </c>
+      <c r="C52" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H47" s="2">
-        <f>SUM(H39:H46)</f>
-        <v>55</v>
+      <c r="D52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>OpenAI</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>OpenAI</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" ref="C54:G63" si="7">COUNTIF($C13:$G13,C$43)</f>
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Anthropic</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Google</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Meta</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>xAI</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Amazon</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" ref="C63:G70" si="8">SUMIFS(C$44:C$59,$B$44:$B$59,$B63)</f>
+        <v>6</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <f t="shared" ref="H63:H70" si="9">SUM(C63:G63)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2">
+        <f>SUM(C63:C70)</f>
+        <v>31</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" ref="D71:G71" si="10">SUM(D63:D70)</f>
+        <v>27</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="2">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H71" s="2">
+        <f>SUM(H63:H70)</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K3:N8">
-    <sortCondition ref="K5:K8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J3:M8">
+    <sortCondition ref="J5:J8"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="J20 K19 L13:L18 C3:G18 L3:L9">
-    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B22:G37 B38:B39">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:G18 J12 J25">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"nm"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:G18 J12:K12 J25 K3:K9 K14:K19">
+    <cfRule type="cellIs" dxfId="15" priority="29" stopIfTrue="1" operator="equal">
       <formula>"ai"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:G18">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"nm"</formula>
+  <conditionalFormatting sqref="C23:G37">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>0.3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:G36 G21:G36">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="C43:G60">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4131,8 +4824,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:G47">
-    <cfRule type="dataBar" priority="31">
+  <conditionalFormatting sqref="C63:G71">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4145,32 +4838,59 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I18 H20">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="H3:H18 H43">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"Google"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20 K19 L13:L18 C3:G18 L3:L9">
-    <cfRule type="cellIs" dxfId="1" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"ph"</formula>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"Anthropic"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+      <formula>"DeepSeek"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
+      <formula>"xAI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
+      <formula>"OpenAI"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O14:O18 N19 M20:M21">
-    <cfRule type="dataBar" priority="29">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{04A35202-A393-A647-8E52-D2A04962D169}</x14:id>
-        </ext>
-      </extLst>
+  <conditionalFormatting sqref="H23:H37">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Anthropic"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"DeepSeek"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"xAI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"OpenAI"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Google"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N9">
-    <cfRule type="dataBar" priority="36">
+  <conditionalFormatting sqref="K3:K8">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+      <formula>"nm"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K9 C3:G18 J12:K12 K14:K19 J25">
+    <cfRule type="cellIs" dxfId="1" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"mu"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K19">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+      <formula>"nm"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M9">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4183,9 +4903,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L8">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"nm"</formula>
+  <conditionalFormatting sqref="M14:M19">
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5D97D504-771D-0649-821E-0E956519AEE9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N18">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04A35202-A393-A647-8E52-D2A04962D169}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4203,7 +4946,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C20:G36 G21:G36</xm:sqref>
+          <xm:sqref>C43:G60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{793E74F4-8ECF-6D45-8817-D4AD769B6B58}">
@@ -4216,7 +4959,33 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C39:G47</xm:sqref>
+          <xm:sqref>C63:G71</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5C493FDD-F85E-154E-8054-50450B0923F6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3:M9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5D97D504-771D-0649-821E-0E956519AEE9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M14:M19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{04A35202-A393-A647-8E52-D2A04962D169}">
@@ -4229,20 +4998,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O14:O18 N19 M20:M21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5C493FDD-F85E-154E-8054-50450B0923F6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N3:N9</xm:sqref>
+          <xm:sqref>N14:N18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
